--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Dropbox\STF\stf_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Dropbox\STF\BSG_Silver_Town_Fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F357D-6C96-402D-8BA1-010381AC470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F9202C-DEA4-49B2-A111-30E742BF8CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1668" windowWidth="19644" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="912" windowWidth="19644" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -947,6 +947,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -971,43 +991,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1380,56 +1380,56 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1533,7 +1533,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>143</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1635,7 +1635,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1687,7 +1687,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
         <v>122</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="4" t="s">
         <v>103</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
@@ -1927,7 +1927,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1954,7 +1954,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
@@ -1991,6 +1991,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="B6:B8"/>
@@ -1998,12 +2004,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Dropbox\STF\stf_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUNSEONG\Dropbox\Seong\Final\BSG_Silver_Town_Fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F357D-6C96-402D-8BA1-010381AC470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B12E39-695E-4770-8BED-7AC7CAC27986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1668" windowWidth="19644" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,14 +673,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/board/{index}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/{index}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/user/{index}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -746,6 +738,14 @@
   </si>
   <si>
     <t>PATCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/{board_index}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/{notice_index}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -947,6 +947,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -971,43 +991,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1380,56 +1380,56 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>128</v>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>61</v>
@@ -1506,14 +1506,14 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
-        <v>142</v>
+      <c r="A12" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -1522,23 +1522,23 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -1547,23 +1547,23 @@
         <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -1572,7 +1572,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>59</v>
@@ -1583,12 +1583,12 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>48</v>
@@ -1597,7 +1597,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>60</v>
@@ -1608,8 +1608,8 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
-        <v>153</v>
+      <c r="A16" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>38</v>
@@ -1624,7 +1624,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>63</v>
@@ -1635,7 +1635,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1687,7 +1687,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
         <v>122</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>131</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>130</v>
@@ -1791,7 +1791,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>91</v>
@@ -1816,7 +1816,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>98</v>
@@ -1866,7 +1866,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="4" t="s">
         <v>103</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
@@ -1927,7 +1927,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1943,7 +1943,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>69</v>
@@ -1954,12 +1954,12 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>71</v>
@@ -1979,7 +1979,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
@@ -1991,6 +1991,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="B6:B8"/>
@@ -1998,12 +2004,6 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
